--- a/src/main/webapp/static/template/Questions.xlsx
+++ b/src/main/webapp/static/template/Questions.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81F942A-E2E5-480D-9384-E4F9180CA5AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F80EBA-0936-444E-9499-8B0F17D55544}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,21 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00030B6B-65B8-4B2A-9110-7AC6679260DE}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F942101D-434F-4C00-A154-509B8AC14801}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选择题需要填写，其他题目不用填。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00030B6B-65B8-4B2A-9110-7AC6679260DE}">
       <text>
         <r>
           <rPr>
@@ -45,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>题目内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,6 +94,22 @@
   </si>
   <si>
     <t>填空题</t>
+  </si>
+  <si>
+    <t>选项A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -89,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +149,13 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -452,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,11 +500,11 @@
     <col min="1" max="1" width="59.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="4" max="8" width="12.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,10 +518,22 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="69.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="59.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -497,16 +546,16 @@
       <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -516,7 +565,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{8B5FC72F-1ECC-4CFA-B6FE-09E2EB59289B}">
       <formula1>"一级,二级,三级"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{4BFBBFF7-8577-4321-8DA4-17D4FC3B8BAB}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:H2" xr:uid="{4BFBBFF7-8577-4321-8DA4-17D4FC3B8BAB}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
